--- a/biology/Botanique/Styphelia_pancheri/Styphelia_pancheri.xlsx
+++ b/biology/Botanique/Styphelia_pancheri/Styphelia_pancheri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Styphelia pancheri est une espèce de plantes à fleurs de la famille des Epacridaceae selon la classification classique, ou de celle des Ericaceae selon la classification phylogénétique.
 Plante arbustive endémique, elle ne se rencontre qu'en Nouvelle-Calédonie.
@@ -514,14 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-L'espèce se présente comme un arbuste pouvant atteindre 8 mètres. Son écorce est blanchâtre ou gris argenté[1].
-Feuilles
-Les feuilles sont courtement pétiolées, lancéolées, très aiguës au sommet puis arrondies, longuement atténuées à la base. Les jeunes feuilles sont rouges. Les nervures sont fines et très nombreuses[1].
-Fleurs
-Les fleurs sont petites, blanches ou rosées[1].
-Fruits
-Les fruits sont des drupes de petite taille, globuleuses ou ellipsoïdes, peu charnues, jaune ambré à rouge orangé à maturité[1].
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se présente comme un arbuste pouvant atteindre 8 mètres. Son écorce est blanchâtre ou gris argenté.
 </t>
         </is>
       </c>
@@ -547,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce se rencontre communément sur la Grande Terre, surtout dans le Sud (y compris l'Ile Ouen), dans le Centre et la côte ouest. Elle se trouve en forêt dense humide et en maquis minier[1].
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont courtement pétiolées, lancéolées, très aiguës au sommet puis arrondies, longuement atténuées à la base. Les jeunes feuilles sont rouges. Les nervures sont fines et très nombreuses.
 </t>
         </is>
       </c>
@@ -578,10 +595,119 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont petites, blanches ou rosées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Styphelia_pancheri</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Styphelia_pancheri</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont des drupes de petite taille, globuleuses ou ellipsoïdes, peu charnues, jaune ambré à rouge orangé à maturité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Styphelia_pancheri</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Styphelia_pancheri</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre communément sur la Grande Terre, surtout dans le Sud (y compris l'Ile Ouen), dans le Centre et la côte ouest. Elle se trouve en forêt dense humide et en maquis minier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Styphelia_pancheri</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Styphelia_pancheri</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Styphelia salicifolia (Brongn. &amp; Gris) Sleumer
 Leucopogon salicifolius Brongn. &amp; Gris</t>
